--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,16 +29,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National redistribution scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Support for C+G+R</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National redistribution scheme (NR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal exit + GCS + NR</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
@@ -71,7 +68,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -419,288 +416,243 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.626865671641791</v>
+        <v>0.76056338028169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709677419354839</v>
+        <v>0.723756906077348</v>
       </c>
       <c r="D2" t="n">
-        <v>0.793103448275862</v>
+        <v>0.819672131147541</v>
       </c>
       <c r="E2" t="n">
-        <v>0.647058823529412</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.494186046511628</v>
+        <v>0.760869565217391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.671641791044776</v>
+        <v>0.697183098591549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.709677419354839</v>
+        <v>0.651933701657459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.827586206896552</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.691176470588235</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.529069767441861</v>
+        <v>0.695652173913043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.597014925373134</v>
+        <v>0.78169014084507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.645161290322581</v>
+        <v>0.69060773480663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.689655172413793</v>
+        <v>0.844262295081967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.632352941176471</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.546511627906977</v>
+        <v>0.739130434782609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.857142857142857</v>
+        <v>0.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0.411764705882353</v>
+        <v>0.826086956521739</v>
       </c>
       <c r="D5" t="n">
-        <v>1.15384615384615</v>
+        <v>0.96875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.785714285714286</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.477272727272727</v>
+        <v>0.866666666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.928571428571429</v>
+        <v>1.01333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>0.764705882352941</v>
+        <v>1.02173913043478</v>
       </c>
       <c r="D6" t="n">
-        <v>1.07692307692308</v>
+        <v>1.03125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.821428571428571</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.659090909090909</v>
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.26865671641791</v>
+        <v>0.394366197183099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.645161290322581</v>
+        <v>0.38121546961326</v>
       </c>
       <c r="D7" t="n">
-        <v>0.896551724137931</v>
+        <v>0.60655737704918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.397058823529412</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.298507462686567</v>
+        <v>0.514084507042254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.741935483870968</v>
+        <v>0.718232044198895</v>
       </c>
       <c r="D8" t="n">
-        <v>0.931034482758621</v>
+        <v>0.778688524590164</v>
       </c>
       <c r="E8" t="n">
-        <v>0.544117647058823</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.453488372093023</v>
+        <v>0.260869565217391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.328358208955224</v>
+        <v>0.415492957746479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225806451612903</v>
+        <v>0.602209944751381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.793103448275862</v>
+        <v>0.557377049180328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.279411764705882</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.151162790697674</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.238805970149254</v>
+        <v>0.211267605633803</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.258064516129032</v>
+        <v>-0.110497237569061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.206896551724138</v>
+        <v>-0.00819672131147541</v>
       </c>
       <c r="E10" t="n">
-        <v>0.117647058823529</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.255813953488372</v>
+        <v>0.217391304347826</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.134328358208955</v>
+        <v>0.345070422535211</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.281767955801105</v>
       </c>
       <c r="D11" t="n">
-        <v>0.379310344827586</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0697674418604651</v>
+        <v>0.282608695652174</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.17910447761194</v>
+        <v>0.21830985915493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.67741935483871</v>
+        <v>0.348066298342541</v>
       </c>
       <c r="D12" t="n">
-        <v>0.517241379310345</v>
+        <v>0.385245901639344</v>
       </c>
       <c r="E12" t="n">
-        <v>0.235294117647059</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.162790697674419</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.417910447761194</v>
+        <v>0.605633802816901</v>
       </c>
       <c r="C13" t="n">
-        <v>0.32258064516129</v>
+        <v>0.585635359116022</v>
       </c>
       <c r="D13" t="n">
-        <v>0.931034482758621</v>
+        <v>0.614754098360656</v>
       </c>
       <c r="E13" t="n">
-        <v>0.529411764705882</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.13953488372093</v>
+        <v>0.565217391304348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.91044776119403</v>
+        <v>0.802816901408451</v>
       </c>
       <c r="C14" t="n">
-        <v>1.03225806451613</v>
+        <v>0.674033149171271</v>
       </c>
       <c r="D14" t="n">
-        <v>1.06896551724138</v>
+        <v>0.89344262295082</v>
       </c>
       <c r="E14" t="n">
-        <v>0.852941176470588</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.162790697674419</v>
+        <v>0.58695652173913</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.26865671641791</v>
+        <v>0.232394366197183</v>
       </c>
       <c r="C15" t="n">
-        <v>0.193548387096774</v>
+        <v>0.116022099447514</v>
       </c>
       <c r="D15" t="n">
-        <v>0.275862068965517</v>
+        <v>0.10655737704918</v>
       </c>
       <c r="E15" t="n">
-        <v>0.397058823529412</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.36046511627907</v>
+        <v>0.260869565217391</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
@@ -416,243 +419,284 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.76056338028169</v>
+        <v>0.787096774193548</v>
       </c>
       <c r="C2" t="n">
-        <v>0.723756906077348</v>
+        <v>0.71334214002642</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.821362799263352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.760869565217391</v>
+        <v>0.725155279503106</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.53424139235717</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.697183098591549</v>
+        <v>0.75</v>
       </c>
       <c r="C3" t="n">
-        <v>0.651933701657459</v>
+        <v>0.667107001321004</v>
       </c>
       <c r="D3" t="n">
-        <v>0.778688524590164</v>
+        <v>0.801104972375691</v>
       </c>
       <c r="E3" t="n">
-        <v>0.695652173913043</v>
+        <v>0.740683229813665</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.552402572833901</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.78169014084507</v>
+        <v>0.783870967741935</v>
       </c>
       <c r="C4" t="n">
-        <v>0.69060773480663</v>
+        <v>0.690885072655218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.844262295081967</v>
+        <v>0.815837937384899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.739130434782609</v>
+        <v>0.680124223602484</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.52099886492622</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.92</v>
+        <v>0.793548387096774</v>
       </c>
       <c r="C5" t="n">
-        <v>0.826086956521739</v>
+        <v>0.9609375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.96875</v>
+        <v>1.20754716981132</v>
       </c>
       <c r="E5" t="n">
-        <v>0.866666666666667</v>
-      </c>
+        <v>0.8801261829653</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1.01333333333333</v>
+        <v>0.751612903225806</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02173913043478</v>
+        <v>1.0703125</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03125</v>
+        <v>1.22264150943396</v>
       </c>
       <c r="E6" t="n">
-        <v>0.933333333333333</v>
-      </c>
+        <v>1.11356466876972</v>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.394366197183099</v>
+        <v>0.306451612903226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.38121546961326</v>
+        <v>0.359313077939234</v>
       </c>
       <c r="D7" t="n">
-        <v>0.60655737704918</v>
+        <v>0.756906077348066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.173913043478261</v>
+        <v>0.277950310559006</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0408626560726447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.514084507042254</v>
+        <v>0.52258064516129</v>
       </c>
       <c r="C8" t="n">
-        <v>0.718232044198895</v>
+        <v>0.696169088507266</v>
       </c>
       <c r="D8" t="n">
-        <v>0.778688524590164</v>
+        <v>0.869244935543278</v>
       </c>
       <c r="E8" t="n">
-        <v>0.260869565217391</v>
+        <v>0.631987577639752</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.348467650397276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.415492957746479</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="C9" t="n">
-        <v>0.602209944751381</v>
+        <v>0.578599735799207</v>
       </c>
       <c r="D9" t="n">
-        <v>0.557377049180328</v>
+        <v>0.69060773480663</v>
       </c>
       <c r="E9" t="n">
-        <v>0.173913043478261</v>
+        <v>0.389751552795031</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.149829738933031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.211267605633803</v>
+        <v>0.0596774193548387</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.110497237569061</v>
+        <v>-0.151915455746367</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00819672131147541</v>
+        <v>0.204419889502762</v>
       </c>
       <c r="E10" t="n">
-        <v>0.217391304347826</v>
+        <v>0.125776397515528</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.121831252364737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345070422535211</v>
+        <v>0.246774193548387</v>
       </c>
       <c r="C11" t="n">
-        <v>0.281767955801105</v>
+        <v>0.264200792602378</v>
       </c>
       <c r="D11" t="n">
-        <v>0.319672131147541</v>
+        <v>0.558011049723757</v>
       </c>
       <c r="E11" t="n">
-        <v>0.282608695652174</v>
+        <v>0.301242236024845</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0620506999621642</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21830985915493</v>
+        <v>0.154838709677419</v>
       </c>
       <c r="C12" t="n">
-        <v>0.348066298342541</v>
+        <v>0.408190224570674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.385245901639344</v>
+        <v>0.548802946593002</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.607142857142857</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.178584941354521</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.605633802816901</v>
+        <v>0.479032258064516</v>
       </c>
       <c r="C13" t="n">
-        <v>0.585635359116022</v>
+        <v>0.513870541611625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.614754098360656</v>
+        <v>0.710865561694291</v>
       </c>
       <c r="E13" t="n">
-        <v>0.565217391304348</v>
+        <v>0.515527950310559</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.195611048051457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>0.802816901408451</v>
+        <v>1.00806451612903</v>
       </c>
       <c r="C14" t="n">
-        <v>0.674033149171271</v>
+        <v>0.895640686922061</v>
       </c>
       <c r="D14" t="n">
-        <v>0.89344262295082</v>
+        <v>1.11786372007366</v>
       </c>
       <c r="E14" t="n">
-        <v>0.58695652173913</v>
+        <v>0.992236024844721</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.184638668180098</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.232394366197183</v>
+        <v>0.141935483870968</v>
       </c>
       <c r="C15" t="n">
-        <v>0.116022099447514</v>
+        <v>0.235138705416116</v>
       </c>
       <c r="D15" t="n">
-        <v>0.10655737704918</v>
+        <v>0.270718232044199</v>
       </c>
       <c r="E15" t="n">
-        <v>0.260869565217391</v>
+        <v>0.411490683229814</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11312902005297</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,16 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
   <si>
     <t xml:space="preserve">National redistribution scheme (NR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Coal exit + GCS + NR</t>
+    <t xml:space="preserve">National climate policy + GCS + NR</t>
   </si>
   <si>
     <t xml:space="preserve">Global tax on millionaires</t>
@@ -71,7 +74,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
@@ -422,281 +425,326 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.787096774193548</v>
+        <v>0.533050523673449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.71334214002642</v>
+        <v>0.752698343735098</v>
       </c>
       <c r="D2" t="n">
-        <v>0.821362799263352</v>
+        <v>0.805398319468679</v>
       </c>
       <c r="E2" t="n">
-        <v>0.725155279503106</v>
+        <v>0.708750845625959</v>
       </c>
       <c r="F2" t="n">
-        <v>0.53424139235717</v>
+        <v>0.813439832560037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.745700372884844</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.75</v>
+        <v>0.543655064678521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.667107001321004</v>
+        <v>0.724413635192711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.801104972375691</v>
+        <v>0.767123422555058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.740683229813665</v>
+        <v>0.661684892722312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.552402572833901</v>
+        <v>0.80196078442816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7516505366876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.783870967741935</v>
+        <v>0.514239052709087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.690885072655218</v>
+        <v>0.731994659198824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.815837937384899</v>
+        <v>0.798678512799643</v>
       </c>
       <c r="E4" t="n">
-        <v>0.680124223602484</v>
+        <v>0.685695391404446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.52099886492622</v>
+        <v>0.80856978466422</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.706843610538689</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.793548387096774</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B5"/>
       <c r="C5" t="n">
-        <v>0.9609375</v>
+        <v>0.942539636172506</v>
       </c>
       <c r="D5" t="n">
-        <v>1.20754716981132</v>
+        <v>0.847154682642659</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8801261829653</v>
-      </c>
-      <c r="F5"/>
+        <v>0.990767144326575</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.27827360190831</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.959734245021866</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.751612903225806</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B6"/>
       <c r="C6" t="n">
-        <v>1.0703125</v>
+        <v>1.02628541931499</v>
       </c>
       <c r="D6" t="n">
-        <v>1.22264150943396</v>
+        <v>0.806634003416677</v>
       </c>
       <c r="E6" t="n">
-        <v>1.11356466876972</v>
-      </c>
-      <c r="F6"/>
+        <v>1.09773621842233</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.27845310807115</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.19135388707363</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.306451612903226</v>
+        <v>0.013889856791103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.359313077939234</v>
+        <v>0.387625462958945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.756906077348066</v>
+        <v>0.339128131163464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.277950310559006</v>
+        <v>0.340843343023117</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0408626560726447</v>
+        <v>0.716407330493261</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.360560845060241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.52258064516129</v>
+        <v>0.328365745265388</v>
       </c>
       <c r="C8" t="n">
-        <v>0.696169088507266</v>
+        <v>0.659768121989391</v>
       </c>
       <c r="D8" t="n">
-        <v>0.869244935543278</v>
+        <v>0.558337695114308</v>
       </c>
       <c r="E8" t="n">
-        <v>0.631987577639752</v>
+        <v>0.666504162569655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.348467650397276</v>
+        <v>0.884786847045576</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.620287129960133</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.403225806451613</v>
+        <v>0.135638551857709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.578599735799207</v>
+        <v>0.513078429854491</v>
       </c>
       <c r="D9" t="n">
-        <v>0.69060773480663</v>
+        <v>0.446299885616666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.389751552795031</v>
+        <v>0.558126151390076</v>
       </c>
       <c r="F9" t="n">
-        <v>0.149829738933031</v>
+        <v>0.659381287476329</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.464121574143084</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0596774193548387</v>
+        <v>-0.141181893050687</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.151915455746367</v>
+        <v>0.016467754233206</v>
       </c>
       <c r="D10" t="n">
-        <v>0.204419889502762</v>
+        <v>0.0773345455656912</v>
       </c>
       <c r="E10" t="n">
-        <v>0.125776397515528</v>
+        <v>-0.203481254116909</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.121831252364737</v>
+        <v>0.24234759867725</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.181435364736671</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.246774193548387</v>
+        <v>0.0535338295355708</v>
       </c>
       <c r="C11" t="n">
-        <v>0.264200792602378</v>
+        <v>0.308351239437555</v>
       </c>
       <c r="D11" t="n">
-        <v>0.558011049723757</v>
+        <v>0.292542710114651</v>
       </c>
       <c r="E11" t="n">
-        <v>0.301242236024845</v>
+        <v>0.215337189894476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0620506999621642</v>
+        <v>0.553679892685173</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.273033036585987</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.154838709677419</v>
+        <v>0.16056394819881</v>
       </c>
       <c r="C12" t="n">
-        <v>0.408190224570674</v>
+        <v>0.403839912341103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.548802946593002</v>
+        <v>0.159055145928737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.607142857142857</v>
+        <v>0.408462254511136</v>
       </c>
       <c r="F12" t="n">
-        <v>0.178584941354521</v>
+        <v>0.578460553993432</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.565080567641465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.479032258064516</v>
+        <v>0.169489597231648</v>
       </c>
       <c r="C13" t="n">
-        <v>0.513870541611625</v>
+        <v>0.526714119953241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.710865561694291</v>
+        <v>0.513735901814158</v>
       </c>
       <c r="E13" t="n">
-        <v>0.515527950310559</v>
+        <v>0.466582898978729</v>
       </c>
       <c r="F13" t="n">
-        <v>0.195611048051457</v>
+        <v>0.725533683352414</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.554987464229102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>1.00806451612903</v>
+        <v>0.158349370558089</v>
       </c>
       <c r="C14" t="n">
-        <v>0.895640686922061</v>
+        <v>0.976036084189087</v>
       </c>
       <c r="D14" t="n">
-        <v>1.11786372007366</v>
+        <v>1.03895535748853</v>
       </c>
       <c r="E14" t="n">
-        <v>0.992236024844721</v>
+        <v>0.912146758743074</v>
       </c>
       <c r="F14" t="n">
-        <v>0.184638668180098</v>
+        <v>1.1239714667965</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.858334271105753</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>0.141935483870968</v>
+        <v>-0.126141020880914</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235138705416116</v>
+        <v>0.268986089235481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.270718232044199</v>
+        <v>0.183852024121922</v>
       </c>
       <c r="E15" t="n">
-        <v>0.411490683229814</v>
+        <v>0.252535168752598</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.11312902005297</v>
+        <v>0.360391405601737</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.419780925019407</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -434,22 +434,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.533050523673449</v>
+        <v>0.541940293813814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.752698343735098</v>
+        <v>0.757124442969868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.805398319468679</v>
+        <v>0.80287801319803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.708750845625959</v>
+        <v>0.71266432814077</v>
       </c>
       <c r="F2" t="n">
-        <v>0.813439832560037</v>
+        <v>0.814181202537546</v>
       </c>
       <c r="G2" t="n">
-        <v>0.745700372884844</v>
+        <v>0.741093867939918</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +457,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.543655064678521</v>
+        <v>0.558336087713609</v>
       </c>
       <c r="C3" t="n">
-        <v>0.724413635192711</v>
+        <v>0.72449033939416</v>
       </c>
       <c r="D3" t="n">
-        <v>0.767123422555058</v>
+        <v>0.768838719029281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661684892722312</v>
+        <v>0.658433214287983</v>
       </c>
       <c r="F3" t="n">
-        <v>0.80196078442816</v>
+        <v>0.79892524528987</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7516505366876</v>
+        <v>0.749406163217863</v>
       </c>
     </row>
     <row r="4">
@@ -480,64 +480,68 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.514239052709087</v>
+        <v>0.524831536121547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.731994659198824</v>
+        <v>0.734354280876327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.798678512799643</v>
+        <v>0.78880716153296</v>
       </c>
       <c r="E4" t="n">
-        <v>0.685695391404446</v>
+        <v>0.690508694213523</v>
       </c>
       <c r="F4" t="n">
-        <v>0.80856978466422</v>
+        <v>0.808274946990806</v>
       </c>
       <c r="G4" t="n">
-        <v>0.706843610538689</v>
+        <v>0.70345279498556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5"/>
+      <c r="B5" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.942539636172506</v>
+        <v>0.941857599347428</v>
       </c>
       <c r="D5" t="n">
-        <v>0.847154682642659</v>
+        <v>0.801440603893216</v>
       </c>
       <c r="E5" t="n">
-        <v>0.990767144326575</v>
+        <v>0.985518240650442</v>
       </c>
       <c r="F5" t="n">
-        <v>1.27827360190831</v>
+        <v>1.27740095499111</v>
       </c>
       <c r="G5" t="n">
-        <v>0.959734245021866</v>
+        <v>0.9059631747299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6"/>
+      <c r="B6" t="e">
+        <v>#NUM!</v>
+      </c>
       <c r="C6" t="n">
-        <v>1.02628541931499</v>
+        <v>1.03442334088248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.806634003416677</v>
+        <v>0.793258072689357</v>
       </c>
       <c r="E6" t="n">
-        <v>1.09773621842233</v>
+        <v>1.08618437617312</v>
       </c>
       <c r="F6" t="n">
-        <v>1.27845310807115</v>
+        <v>1.28016409588365</v>
       </c>
       <c r="G6" t="n">
-        <v>1.19135388707363</v>
+        <v>1.11973408990664</v>
       </c>
     </row>
     <row r="7">
@@ -545,22 +549,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.013889856791103</v>
+        <v>0.045923622473578</v>
       </c>
       <c r="C7" t="n">
-        <v>0.387625462958945</v>
+        <v>0.415614128101992</v>
       </c>
       <c r="D7" t="n">
-        <v>0.339128131163464</v>
+        <v>0.355003395102874</v>
       </c>
       <c r="E7" t="n">
-        <v>0.340843343023117</v>
+        <v>0.384920722670987</v>
       </c>
       <c r="F7" t="n">
-        <v>0.716407330493261</v>
+        <v>0.712001485457088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.360560845060241</v>
+        <v>0.351152535943474</v>
       </c>
     </row>
     <row r="8">
@@ -568,22 +572,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.328365745265388</v>
+        <v>0.363392836940455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.659768121989391</v>
+        <v>0.676945270116784</v>
       </c>
       <c r="D8" t="n">
-        <v>0.558337695114308</v>
+        <v>0.549313692389479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.666504162569655</v>
+        <v>0.707147724898173</v>
       </c>
       <c r="F8" t="n">
-        <v>0.884786847045576</v>
+        <v>0.898656589444003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.620287129960133</v>
+        <v>0.6399572484405</v>
       </c>
     </row>
     <row r="9">
@@ -591,22 +595,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.135638551857709</v>
+        <v>0.172015319281993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.513078429854491</v>
+        <v>0.524416141560814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.446299885616666</v>
+        <v>0.43969670018905</v>
       </c>
       <c r="E9" t="n">
-        <v>0.558126151390076</v>
+        <v>0.579185819720047</v>
       </c>
       <c r="F9" t="n">
-        <v>0.659381287476329</v>
+        <v>0.671160223996424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.464121574143084</v>
+        <v>0.421632625856207</v>
       </c>
     </row>
     <row r="10">
@@ -614,22 +618,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.141181893050687</v>
+        <v>-0.124678717076525</v>
       </c>
       <c r="C10" t="n">
-        <v>0.016467754233206</v>
+        <v>0.0350858021012577</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0773345455656912</v>
+        <v>0.0546617992186194</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.203481254116909</v>
+        <v>-0.173789111705596</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24234759867725</v>
+        <v>0.247292690284371</v>
       </c>
       <c r="G10" t="n">
-        <v>0.181435364736671</v>
+        <v>0.177094070744044</v>
       </c>
     </row>
     <row r="11">
@@ -637,22 +641,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0535338295355708</v>
+        <v>0.077908126413563</v>
       </c>
       <c r="C11" t="n">
-        <v>0.308351239437555</v>
+        <v>0.33350215057838</v>
       </c>
       <c r="D11" t="n">
-        <v>0.292542710114651</v>
+        <v>0.269289806363896</v>
       </c>
       <c r="E11" t="n">
-        <v>0.215337189894476</v>
+        <v>0.268544708743813</v>
       </c>
       <c r="F11" t="n">
-        <v>0.553679892685173</v>
+        <v>0.573608611917946</v>
       </c>
       <c r="G11" t="n">
-        <v>0.273033036585987</v>
+        <v>0.333414831873513</v>
       </c>
     </row>
     <row r="12">
@@ -660,22 +664,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16056394819881</v>
+        <v>0.168351939001038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.403839912341103</v>
+        <v>0.413460663983791</v>
       </c>
       <c r="D12" t="n">
-        <v>0.159055145928737</v>
+        <v>0.132345777475132</v>
       </c>
       <c r="E12" t="n">
-        <v>0.408462254511136</v>
+        <v>0.4241405945309</v>
       </c>
       <c r="F12" t="n">
-        <v>0.578460553993432</v>
+        <v>0.584733499215059</v>
       </c>
       <c r="G12" t="n">
-        <v>0.565080567641465</v>
+        <v>0.559491437238886</v>
       </c>
     </row>
     <row r="13">
@@ -683,22 +687,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.169489597231648</v>
+        <v>0.190457049885201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.526714119953241</v>
+        <v>0.544460213935197</v>
       </c>
       <c r="D13" t="n">
-        <v>0.513735901814158</v>
+        <v>0.484490560893033</v>
       </c>
       <c r="E13" t="n">
-        <v>0.466582898978729</v>
+        <v>0.512302095010821</v>
       </c>
       <c r="F13" t="n">
-        <v>0.725533683352414</v>
+        <v>0.72463371184487</v>
       </c>
       <c r="G13" t="n">
-        <v>0.554987464229102</v>
+        <v>0.568910189937819</v>
       </c>
     </row>
     <row r="14">
@@ -706,22 +710,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.158349370558089</v>
+        <v>0.179060362908465</v>
       </c>
       <c r="C14" t="n">
-        <v>0.976036084189087</v>
+        <v>0.970383337635537</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03895535748853</v>
+        <v>1.00648803439778</v>
       </c>
       <c r="E14" t="n">
-        <v>0.912146758743074</v>
+        <v>0.960358194295615</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1239714667965</v>
+        <v>1.11313224155618</v>
       </c>
       <c r="G14" t="n">
-        <v>0.858334271105753</v>
+        <v>0.860330239216708</v>
       </c>
     </row>
     <row r="15">
@@ -729,22 +733,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.126141020880914</v>
+        <v>-0.118683922433153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.268986089235481</v>
+        <v>0.276163819652425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.183852024121922</v>
+        <v>0.158109346990052</v>
       </c>
       <c r="E15" t="n">
-        <v>0.252535168752598</v>
+        <v>0.277071968555084</v>
       </c>
       <c r="F15" t="n">
-        <v>0.360391405601737</v>
+        <v>0.385607446181505</v>
       </c>
       <c r="G15" t="n">
-        <v>0.419780925019407</v>
+        <v>0.404878954955889</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -50,31 +50,38 @@
     <t xml:space="preserve">National tax on millionaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate
+low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable
+energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year
+to help low-income countries adapt to climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -434,22 +441,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.541940293813814</v>
+        <v>0.527972736493319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.757124442969868</v>
+        <v>0.757320866764204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80287801319803</v>
+        <v>0.802845995450502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71266432814077</v>
+        <v>0.712681465751731</v>
       </c>
       <c r="F2" t="n">
-        <v>0.814181202537546</v>
+        <v>0.809917713113721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.741093867939918</v>
+        <v>0.74106127773703</v>
       </c>
     </row>
     <row r="3">
@@ -457,22 +464,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.558336087713609</v>
+        <v>0.557518324399071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.72449033939416</v>
+        <v>0.726238536290562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.768838719029281</v>
+        <v>0.768794438370656</v>
       </c>
       <c r="E3" t="n">
-        <v>0.658433214287983</v>
+        <v>0.658435932985819</v>
       </c>
       <c r="F3" t="n">
-        <v>0.79892524528987</v>
+        <v>0.787745433104858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.749406163217863</v>
+        <v>0.749378737165197</v>
       </c>
     </row>
     <row r="4">
@@ -480,68 +487,68 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.524831536121547</v>
+        <v>0.524870121220232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734354280876327</v>
+        <v>0.735027761278094</v>
       </c>
       <c r="D4" t="n">
-        <v>0.78880716153296</v>
+        <v>0.788770385854295</v>
       </c>
       <c r="E4" t="n">
-        <v>0.690508694213523</v>
+        <v>0.690510975064862</v>
       </c>
       <c r="F4" t="n">
-        <v>0.808274946990806</v>
+        <v>0.808592285414348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.70345279498556</v>
+        <v>0.703443018587396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="e">
-        <v>#NUM!</v>
+      <c r="B5" t="n">
+        <v>0.471390713228356</v>
       </c>
       <c r="C5" t="n">
-        <v>0.941857599347428</v>
+        <v>0.939115806311088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.801440603893216</v>
+        <v>0.801008965030808</v>
       </c>
       <c r="E5" t="n">
-        <v>0.985518240650442</v>
+        <v>0.98537712667328</v>
       </c>
       <c r="F5" t="n">
-        <v>1.27740095499111</v>
+        <v>1.23105123304645</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9059631747299</v>
+        <v>0.905942717080616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="e">
-        <v>#NUM!</v>
+      <c r="B6" t="n">
+        <v>0.63299052696081</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03442334088248</v>
+        <v>1.03178476588789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.793258072689357</v>
+        <v>0.792722525537978</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08618437617312</v>
+        <v>1.08601447601619</v>
       </c>
       <c r="F6" t="n">
-        <v>1.28016409588365</v>
+        <v>1.22877468781601</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11973408990664</v>
+        <v>1.11973435376782</v>
       </c>
     </row>
     <row r="7">
@@ -549,22 +556,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.045923622473578</v>
+        <v>0.0460734910149551</v>
       </c>
       <c r="C7" t="n">
-        <v>0.415614128101992</v>
+        <v>0.420789285712152</v>
       </c>
       <c r="D7" t="n">
-        <v>0.355003395102874</v>
+        <v>0.354815093607574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.384920722670987</v>
+        <v>0.384925385322028</v>
       </c>
       <c r="F7" t="n">
-        <v>0.712001485457088</v>
+        <v>0.728875163433577</v>
       </c>
       <c r="G7" t="n">
-        <v>0.351152535943474</v>
+        <v>0.351115958564954</v>
       </c>
     </row>
     <row r="8">
@@ -572,22 +579,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.363392836940455</v>
+        <v>0.363475325351156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.676945270116784</v>
+        <v>0.675757600404575</v>
       </c>
       <c r="D8" t="n">
-        <v>0.549313692389479</v>
+        <v>0.549180456697259</v>
       </c>
       <c r="E8" t="n">
-        <v>0.707147724898173</v>
+        <v>0.707186478073401</v>
       </c>
       <c r="F8" t="n">
-        <v>0.898656589444003</v>
+        <v>0.847603208216924</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6399572484405</v>
+        <v>0.639895275923514</v>
       </c>
     </row>
     <row r="9">
@@ -595,22 +602,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>0.172015319281993</v>
+        <v>0.172116107147519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.524416141560814</v>
+        <v>0.528975011194529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.43969670018905</v>
+        <v>0.439506678714161</v>
       </c>
       <c r="E9" t="n">
-        <v>0.579185819720047</v>
+        <v>0.579206426799878</v>
       </c>
       <c r="F9" t="n">
-        <v>0.671160223996424</v>
+        <v>0.704007264191714</v>
       </c>
       <c r="G9" t="n">
-        <v>0.421632625856207</v>
+        <v>0.421581851489749</v>
       </c>
     </row>
     <row r="10">
@@ -618,22 +625,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.124678717076525</v>
+        <v>-0.12441159299716</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0350858021012577</v>
+        <v>0.0349922531460255</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0546617992186194</v>
+        <v>0.0544427496703824</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.173789111705596</v>
+        <v>-0.173798169716794</v>
       </c>
       <c r="F10" t="n">
-        <v>0.247292690284371</v>
+        <v>0.244916356322247</v>
       </c>
       <c r="G10" t="n">
-        <v>0.177094070744044</v>
+        <v>0.177060335998386</v>
       </c>
     </row>
     <row r="11">
@@ -641,22 +648,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.077908126413563</v>
+        <v>0.0781277396872659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.33350215057838</v>
+        <v>0.329411627503595</v>
       </c>
       <c r="D11" t="n">
-        <v>0.269289806363896</v>
+        <v>0.269203984523153</v>
       </c>
       <c r="E11" t="n">
-        <v>0.268544708743813</v>
+        <v>0.268538387600695</v>
       </c>
       <c r="F11" t="n">
-        <v>0.573608611917946</v>
+        <v>0.569881936141403</v>
       </c>
       <c r="G11" t="n">
-        <v>0.333414831873513</v>
+        <v>0.333381933560885</v>
       </c>
     </row>
     <row r="12">
@@ -664,22 +671,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>0.168351939001038</v>
+        <v>0.168477401346791</v>
       </c>
       <c r="C12" t="n">
-        <v>0.413460663983791</v>
+        <v>0.412586129907337</v>
       </c>
       <c r="D12" t="n">
-        <v>0.132345777475132</v>
+        <v>0.132339476178013</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4241405945309</v>
+        <v>0.424102525140832</v>
       </c>
       <c r="F12" t="n">
-        <v>0.584733499215059</v>
+        <v>0.550996480141014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.559491437238886</v>
+        <v>0.559488208697639</v>
       </c>
     </row>
     <row r="13">
@@ -687,22 +694,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.190457049885201</v>
+        <v>0.190580455975378</v>
       </c>
       <c r="C13" t="n">
-        <v>0.544460213935197</v>
+        <v>0.540458015688794</v>
       </c>
       <c r="D13" t="n">
-        <v>0.484490560893033</v>
+        <v>0.484262773452059</v>
       </c>
       <c r="E13" t="n">
-        <v>0.512302095010821</v>
+        <v>0.512237503597023</v>
       </c>
       <c r="F13" t="n">
-        <v>0.72463371184487</v>
+        <v>0.706061662357771</v>
       </c>
       <c r="G13" t="n">
-        <v>0.568910189937819</v>
+        <v>0.56887293464701</v>
       </c>
     </row>
     <row r="14">
@@ -710,22 +717,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>0.179060362908465</v>
+        <v>0.179302456455172</v>
       </c>
       <c r="C14" t="n">
-        <v>0.970383337635537</v>
+        <v>0.967744493172847</v>
       </c>
       <c r="D14" t="n">
-        <v>1.00648803439778</v>
+        <v>1.00630794676568</v>
       </c>
       <c r="E14" t="n">
-        <v>0.960358194295615</v>
+        <v>0.960397158024986</v>
       </c>
       <c r="F14" t="n">
-        <v>1.11313224155618</v>
+        <v>1.09830906964386</v>
       </c>
       <c r="G14" t="n">
-        <v>0.860330239216708</v>
+        <v>0.860364720716399</v>
       </c>
     </row>
     <row r="15">
@@ -733,22 +740,22 @@
         <v>20</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.118683922433153</v>
+        <v>-0.118306561742397</v>
       </c>
       <c r="C15" t="n">
-        <v>0.276163819652425</v>
+        <v>0.269905385393051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.158109346990052</v>
+        <v>0.157814312652819</v>
       </c>
       <c r="E15" t="n">
-        <v>0.277071968555084</v>
+        <v>0.276975152631472</v>
       </c>
       <c r="F15" t="n">
-        <v>0.385607446181505</v>
+        <v>0.329182214519461</v>
       </c>
       <c r="G15" t="n">
-        <v>0.404878954955889</v>
+        <v>0.40487061674618</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/support_mean.xlsx
+++ b/xlsx/country_comparison/support_mean.xlsx
@@ -50,38 +50,31 @@
     <t xml:space="preserve">National tax on millionaires</t>
   </si>
   <si>
-    <t xml:space="preserve">Payments from high-income countries to compensate
-low-income countries for climate damages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries funding renewable
-energy in low-income countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-income countries contributing $100 billion per year
-to help low-income countries adapt to climate change</t>
+    <t xml:space="preserve">Payments from high-income countries to compensate low-income countries for climate damages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries funding renewable energy in low-income countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-income countries contributing $100 billion per year to help low-income countries adapt to climate change</t>
   </si>
   <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
-a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries
-at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial
-register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion
-(US) / €100 million (Eu) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
